--- a/resources/experiment 1/predictions/single/RandomForestRegressor/incidence/Ceguera (INC).xlsx
+++ b/resources/experiment 1/predictions/single/RandomForestRegressor/incidence/Ceguera (INC).xlsx
@@ -452,783 +452,783 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6.408678148937839</v>
+        <v>6.400776119402984</v>
       </c>
       <c r="B2" t="n">
-        <v>2.859999999999999</v>
+        <v>2.903999999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>10.95191746031745</v>
+        <v>10.852</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.09400050092735812</v>
+        <v>0.08827860696517399</v>
       </c>
       <c r="B3" t="n">
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4055438596491219</v>
+        <v>0.4079999999999999</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.1936248294434747</v>
+        <v>0.1794029850746263</v>
       </c>
       <c r="B4" t="n">
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6682792505968979</v>
+        <v>0.6280000000000006</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.1314775024821263</v>
+        <v>0.1286766169154227</v>
       </c>
       <c r="B5" t="n">
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5247489239805031</v>
+        <v>0.4839999999999998</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.9031499012872137</v>
+        <v>0.9091542288557202</v>
       </c>
       <c r="B6" t="n">
-        <v>0.1885105783105783</v>
+        <v>0.188</v>
       </c>
       <c r="C6" t="n">
-        <v>1.836489417989421</v>
+        <v>1.859999999999999</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4.388102266445548</v>
+        <v>4.390766169154213</v>
       </c>
       <c r="B7" t="n">
-        <v>1.717599999999999</v>
+        <v>1.783999999999999</v>
       </c>
       <c r="C7" t="n">
-        <v>7.967784126984117</v>
+        <v>7.904000000000003</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>10.99985138329515</v>
+        <v>11.07599999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>6.008955555555555</v>
+        <v>6.036</v>
       </c>
       <c r="C8" t="n">
-        <v>16.48147662337664</v>
+        <v>16.41199999999999</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.7176417560143911</v>
+        <v>0.7004577114427848</v>
       </c>
       <c r="B9" t="n">
-        <v>0.03876002886002886</v>
+        <v>0.028</v>
       </c>
       <c r="C9" t="n">
-        <v>1.675195238095237</v>
+        <v>1.639999999999999</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>11.95595768823031</v>
+        <v>11.99291542288556</v>
       </c>
       <c r="B10" t="n">
-        <v>6.419777552512848</v>
+        <v>6.628000000000002</v>
       </c>
       <c r="C10" t="n">
-        <v>18.08507259037259</v>
+        <v>18.132</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>10.30584697938878</v>
+        <v>10.26722388059702</v>
       </c>
       <c r="B11" t="n">
-        <v>5.250000000000001</v>
+        <v>5.312000000000003</v>
       </c>
       <c r="C11" t="n">
-        <v>16.24058412698416</v>
+        <v>16.04799999999999</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>3.813007628524038</v>
+        <v>3.819422885572128</v>
       </c>
       <c r="B12" t="n">
-        <v>1.444</v>
+        <v>1.403999999999999</v>
       </c>
       <c r="C12" t="n">
-        <v>6.88933333333333</v>
+        <v>6.951999999999999</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>14.73679510230926</v>
+        <v>14.718407960199</v>
       </c>
       <c r="B13" t="n">
-        <v>8.163509523809525</v>
+        <v>8.084000000000001</v>
       </c>
       <c r="C13" t="n">
-        <v>22.38330955125599</v>
+        <v>22.308</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>12.49058920476978</v>
+        <v>12.53974129353232</v>
       </c>
       <c r="B14" t="n">
-        <v>6.780695238095238</v>
+        <v>6.896000000000002</v>
       </c>
       <c r="C14" t="n">
-        <v>18.92223675213674</v>
+        <v>18.628</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.1785976637080821</v>
+        <v>0.1893532338308455</v>
       </c>
       <c r="B15" t="n">
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6228532984502021</v>
+        <v>0.6280000000000006</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.9073289425886432</v>
+        <v>0.9099104477611928</v>
       </c>
       <c r="B16" t="n">
-        <v>0.2157328005328006</v>
+        <v>0.18</v>
       </c>
       <c r="C16" t="n">
-        <v>1.822685714285716</v>
+        <v>1.879999999999999</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>3.763688667772241</v>
+        <v>3.759422885572131</v>
       </c>
       <c r="B17" t="n">
-        <v>1.435999999999999</v>
+        <v>1.451999999999999</v>
       </c>
       <c r="C17" t="n">
-        <v>6.666666666666654</v>
+        <v>6.764000000000002</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.1936248294434747</v>
+        <v>0.1777711442786064</v>
       </c>
       <c r="B18" t="n">
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0.6745138382314855</v>
+        <v>0.6520000000000006</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>12.6628074074074</v>
+        <v>12.6566567164179</v>
       </c>
       <c r="B19" t="n">
-        <v>6.858000000000004</v>
+        <v>6.836000000000004</v>
       </c>
       <c r="C19" t="n">
-        <v>19.00203333333332</v>
+        <v>19.144</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1.251748392955855</v>
+        <v>1.251721393034825</v>
       </c>
       <c r="B20" t="n">
-        <v>0.2814267399267399</v>
+        <v>0.308</v>
       </c>
       <c r="C20" t="n">
-        <v>2.551875213675216</v>
+        <v>2.571999999999999</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.3666479105195516</v>
+        <v>0.3731343283582084</v>
       </c>
       <c r="B21" t="n">
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9802062234062234</v>
+        <v>1.008</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>13.2709749365799</v>
+        <v>13.31661691542288</v>
       </c>
       <c r="B22" t="n">
-        <v>6.904384992784994</v>
+        <v>7.012</v>
       </c>
       <c r="C22" t="n">
-        <v>19.68105367965368</v>
+        <v>19.71199999999999</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.1827816993886351</v>
+        <v>0.181054726368159</v>
       </c>
       <c r="B23" t="n">
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0.6412586856555889</v>
+        <v>0.6400000000000005</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.9074407644318082</v>
+        <v>0.9055522388059688</v>
       </c>
       <c r="B24" t="n">
-        <v>0.1822857142857144</v>
+        <v>0.1640000000000001</v>
       </c>
       <c r="C24" t="n">
-        <v>1.825041269841272</v>
+        <v>1.879999999999999</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.5874061599171048</v>
+        <v>0.5925572139303478</v>
       </c>
       <c r="B25" t="n">
-        <v>0.02236363636363636</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>1.377086080586082</v>
+        <v>1.356</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.3629243515467389</v>
+        <v>0.3521990049751241</v>
       </c>
       <c r="B26" t="n">
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9751189218189217</v>
+        <v>1.008</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>16.96504323619993</v>
+        <v>16.89787064676617</v>
       </c>
       <c r="B27" t="n">
-        <v>9.352382539682543</v>
+        <v>9.383999999999999</v>
       </c>
       <c r="C27" t="n">
-        <v>25.10793809523813</v>
+        <v>24.96799999999999</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>5.51868656716417</v>
+        <v>5.4809751243781</v>
       </c>
       <c r="B28" t="n">
-        <v>2.250666666666668</v>
+        <v>2.212000000000002</v>
       </c>
       <c r="C28" t="n">
-        <v>9.485111111111104</v>
+        <v>9.444000000000004</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.2120029702562033</v>
+        <v>0.226189054726367</v>
       </c>
       <c r="B29" t="n">
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0.7796449402449384</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>3.194317910447742</v>
+        <v>3.19383084577113</v>
       </c>
       <c r="B30" t="n">
-        <v>0.9022898989898986</v>
+        <v>1.02</v>
       </c>
       <c r="C30" t="n">
-        <v>6.138901587301583</v>
+        <v>6.127999999999999</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>11.43589972360418</v>
+        <v>11.40949253731342</v>
       </c>
       <c r="B31" t="n">
-        <v>5.806355555555559</v>
+        <v>5.840000000000004</v>
       </c>
       <c r="C31" t="n">
-        <v>17.69296507936507</v>
+        <v>17.792</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>11.252970475664</v>
+        <v>11.2499502487562</v>
       </c>
       <c r="B32" t="n">
-        <v>6.194272527472528</v>
+        <v>6.083999999999998</v>
       </c>
       <c r="C32" t="n">
-        <v>17.37225657305656</v>
+        <v>17.24400000000001</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>12.56591203506276</v>
+        <v>12.7369751243781</v>
       </c>
       <c r="B33" t="n">
-        <v>6.842695238095238</v>
+        <v>7.044</v>
       </c>
       <c r="C33" t="n">
-        <v>19.16272564102563</v>
+        <v>19.01199999999999</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>8.94353344389164</v>
+        <v>8.952995024875607</v>
       </c>
       <c r="B34" t="n">
-        <v>4.424</v>
+        <v>4.391999999999999</v>
       </c>
       <c r="C34" t="n">
-        <v>14.65653333333332</v>
+        <v>14.628</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1.072133088525625</v>
+        <v>1.092796019900496</v>
       </c>
       <c r="B35" t="n">
-        <v>0.1782857142857143</v>
+        <v>0.108</v>
       </c>
       <c r="C35" t="n">
-        <v>2.396855636955636</v>
+        <v>2.404000000000001</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>4.501603095632948</v>
+        <v>4.5035422885572</v>
       </c>
       <c r="B36" t="n">
-        <v>1.719999999999999</v>
+        <v>1.783999999999999</v>
       </c>
       <c r="C36" t="n">
-        <v>8.040450793650791</v>
+        <v>8.02</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.4185810897412882</v>
+        <v>0.442368159203979</v>
       </c>
       <c r="B37" t="n">
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>1.211938287638287</v>
+        <v>1.204000000000001</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>14.40416528468767</v>
+        <v>14.34758208955224</v>
       </c>
       <c r="B38" t="n">
-        <v>8.266355555555551</v>
+        <v>8.307999999999995</v>
       </c>
       <c r="C38" t="n">
-        <v>21.17249153439154</v>
+        <v>21.24799999999999</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>4.033210613598674</v>
+        <v>4.076238805970144</v>
       </c>
       <c r="B39" t="n">
         <v>1.608</v>
       </c>
       <c r="C39" t="n">
-        <v>7.63066666666665</v>
+        <v>7.688000000000006</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.2614129190395246</v>
+        <v>0.2496318407960193</v>
       </c>
       <c r="B40" t="n">
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0.7628891962068426</v>
+        <v>0.7999999999999998</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>3.762976703782664</v>
+        <v>3.750985074626853</v>
       </c>
       <c r="B41" t="n">
-        <v>1.5096</v>
+        <v>1.484</v>
       </c>
       <c r="C41" t="n">
-        <v>6.802911111111104</v>
+        <v>6.824000000000004</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>11.28901880281133</v>
+        <v>11.27395024875621</v>
       </c>
       <c r="B42" t="n">
-        <v>6.049833333333332</v>
+        <v>6.071999999999998</v>
       </c>
       <c r="C42" t="n">
-        <v>17.38409523809528</v>
+        <v>17.41999999999999</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>3.193885406301805</v>
+        <v>3.19383084577113</v>
       </c>
       <c r="B43" t="n">
-        <v>0.9082898989898988</v>
+        <v>1.02</v>
       </c>
       <c r="C43" t="n">
-        <v>6.140234920634916</v>
+        <v>6.127999999999999</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>6.853185959093409</v>
+        <v>6.849253731343281</v>
       </c>
       <c r="B44" t="n">
-        <v>3.516333333333335</v>
+        <v>3.424000000000003</v>
       </c>
       <c r="C44" t="n">
-        <v>11.16335555555557</v>
+        <v>11.192</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>13.0672730790492</v>
+        <v>13.34571144278606</v>
       </c>
       <c r="B45" t="n">
-        <v>7.667999999999999</v>
+        <v>7.644</v>
       </c>
       <c r="C45" t="n">
-        <v>20.15126666666667</v>
+        <v>20.19599999999999</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>10.11017271315379</v>
+        <v>10.11418905472636</v>
       </c>
       <c r="B46" t="n">
-        <v>5.606798412698412</v>
+        <v>5.595999999999999</v>
       </c>
       <c r="C46" t="n">
-        <v>15.605691005291</v>
+        <v>15.612</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>14.14607800642327</v>
+        <v>14.09596019900495</v>
       </c>
       <c r="B47" t="n">
-        <v>8.094251659451658</v>
+        <v>8.1</v>
       </c>
       <c r="C47" t="n">
-        <v>21.66353815628815</v>
+        <v>21.45200000000001</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>3.88191995577666</v>
+        <v>3.873572139303471</v>
       </c>
       <c r="B48" t="n">
-        <v>1.495999999999999</v>
+        <v>1.448</v>
       </c>
       <c r="C48" t="n">
-        <v>6.873999999999992</v>
+        <v>7.024000000000001</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.1964240957382634</v>
+        <v>0.2106268656716404</v>
       </c>
       <c r="B49" t="n">
         <v>0</v>
       </c>
       <c r="C49" t="n">
-        <v>0.6739067453243922</v>
+        <v>0.6320000000000005</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0.4204096992191513</v>
+        <v>0.4528159203980093</v>
       </c>
       <c r="B50" t="n">
-        <v>0.008</v>
+        <v>0</v>
       </c>
       <c r="C50" t="n">
-        <v>1.263692784992785</v>
+        <v>1.272</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0.09416463264969878</v>
+        <v>0.08382089552238794</v>
       </c>
       <c r="B51" t="n">
         <v>0</v>
       </c>
       <c r="C51" t="n">
-        <v>0.400654970760233</v>
+        <v>0.3999999999999999</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>9.035132264602904</v>
+        <v>9.014567164179105</v>
       </c>
       <c r="B52" t="n">
-        <v>4.409333333333331</v>
+        <v>4.399999999999999</v>
       </c>
       <c r="C52" t="n">
-        <v>14.08492804232805</v>
+        <v>14.036</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>4.054084245439467</v>
+        <v>4.190228855721388</v>
       </c>
       <c r="B53" t="n">
-        <v>1.683999999999999</v>
+        <v>1.707999999999999</v>
       </c>
       <c r="C53" t="n">
-        <v>7.58266666666665</v>
+        <v>7.728000000000006</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0.1745513883692695</v>
+        <v>0.1725572139303481</v>
       </c>
       <c r="B54" t="n">
         <v>0</v>
       </c>
       <c r="C54" t="n">
-        <v>0.6113871275840311</v>
+        <v>0.6080000000000005</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0.3648193010416885</v>
+        <v>0.3579104477611936</v>
       </c>
       <c r="B55" t="n">
         <v>0</v>
       </c>
       <c r="C55" t="n">
-        <v>0.9778728900728901</v>
+        <v>1.008</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>11.71462321724706</v>
+        <v>11.72630845771144</v>
       </c>
       <c r="B56" t="n">
-        <v>5.798999999999999</v>
+        <v>5.988</v>
       </c>
       <c r="C56" t="n">
-        <v>17.82176507936508</v>
+        <v>17.776</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>11.23872519413513</v>
+        <v>11.25114427860695</v>
       </c>
       <c r="B57" t="n">
-        <v>6.2504585048938</v>
+        <v>6.095999999999997</v>
       </c>
       <c r="C57" t="n">
-        <v>17.3527899063899</v>
+        <v>17.24000000000001</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0.4151609932540274</v>
+        <v>0.4343084577114413</v>
       </c>
       <c r="B58" t="n">
         <v>0</v>
       </c>
       <c r="C58" t="n">
-        <v>1.238303367003367</v>
+        <v>1.244</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>8.831887230514081</v>
+        <v>8.81653731343283</v>
       </c>
       <c r="B59" t="n">
-        <v>4.460400000000002</v>
+        <v>4.572000000000002</v>
       </c>
       <c r="C59" t="n">
-        <v>14.1236634920635</v>
+        <v>14.096</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0.1878147479321313</v>
+        <v>0.1964975124378106</v>
       </c>
       <c r="B60" t="n">
-        <v>0.008</v>
+        <v>0</v>
       </c>
       <c r="C60" t="n">
-        <v>0.6562804120773152</v>
+        <v>0.6640000000000005</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>13.60368847034668</v>
+        <v>13.76859701492538</v>
       </c>
       <c r="B61" t="n">
-        <v>7.305257142857142</v>
+        <v>7.367999999999995</v>
       </c>
       <c r="C61" t="n">
-        <v>20.442012881855</v>
+        <v>20.348</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>10.31708412698413</v>
+        <v>10.27932338308458</v>
       </c>
       <c r="B62" t="n">
-        <v>5.250000000000001</v>
+        <v>5.336000000000001</v>
       </c>
       <c r="C62" t="n">
-        <v>16.20280634920638</v>
+        <v>16.07999999999999</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>15.58489205822735</v>
+        <v>15.54680597014925</v>
       </c>
       <c r="B63" t="n">
-        <v>8.582844444444444</v>
+        <v>8.684000000000003</v>
       </c>
       <c r="C63" t="n">
-        <v>23.16934074074075</v>
+        <v>22.912</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0.1882956766220152</v>
+        <v>0.1992835820895518</v>
       </c>
       <c r="B64" t="n">
-        <v>0.008</v>
+        <v>0</v>
       </c>
       <c r="C64" t="n">
-        <v>0.6522359676328707</v>
+        <v>0.6640000000000005</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>10.22926630340362</v>
+        <v>10.19590049751243</v>
       </c>
       <c r="B65" t="n">
-        <v>5.693765079365082</v>
+        <v>5.552000000000004</v>
       </c>
       <c r="C65" t="n">
-        <v>15.81909196729197</v>
+        <v>15.896</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>8.307243228302918</v>
+        <v>8.214467661691527</v>
       </c>
       <c r="B66" t="n">
-        <v>4.176000000000002</v>
+        <v>4.184000000000003</v>
       </c>
       <c r="C66" t="n">
-        <v>13.43999292929291</v>
+        <v>13.496</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>6.997391487009399</v>
+        <v>7.00784079601989</v>
       </c>
       <c r="B67" t="n">
-        <v>3.239999999999999</v>
+        <v>3.255999999999999</v>
       </c>
       <c r="C67" t="n">
-        <v>12.0789341991342</v>
+        <v>11.84</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0.2907174317114612</v>
+        <v>0.317890547263681</v>
       </c>
       <c r="B68" t="n">
         <v>0</v>
       </c>
       <c r="C68" t="n">
-        <v>0.9368741887741882</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>14.32677549780236</v>
+        <v>14.52039800995023</v>
       </c>
       <c r="B69" t="n">
-        <v>8.358480808080806</v>
+        <v>8.179999999999993</v>
       </c>
       <c r="C69" t="n">
-        <v>22.34150108595107</v>
+        <v>22.27599999999999</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0.2614129190395246</v>
+        <v>0.2562786069651734</v>
       </c>
       <c r="B70" t="n">
         <v>0</v>
       </c>
       <c r="C70" t="n">
-        <v>0.7696314761491225</v>
+        <v>0.7959999999999998</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>1.451793003237779</v>
+        <v>1.444855721393035</v>
       </c>
       <c r="B71" t="n">
         <v>0.3999999999999999</v>
       </c>
       <c r="C71" t="n">
-        <v>3.147833333333329</v>
+        <v>3.159999999999999</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>2.236514427860686</v>
+        <v>2.273094527363169</v>
       </c>
       <c r="B72" t="n">
-        <v>0.8071428571428573</v>
+        <v>0.7959999999999998</v>
       </c>
       <c r="C72" t="n">
-        <v>4.507344444444453</v>
+        <v>4.551999999999998</v>
       </c>
     </row>
   </sheetData>
